--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_5.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_24</t>
+          <t>model_15_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9939990121016957</v>
+        <v>0.9999384103061281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.994790179201409</v>
+        <v>0.9989770226512211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9971529692511586</v>
+        <v>0.9997060993627553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9982240356060322</v>
+        <v>0.9998263246631455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9976917521959885</v>
+        <v>0.9998274534447404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005601658790142085</v>
+        <v>5.749127575435739e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004863139030781776</v>
+        <v>0.0009549044515691711</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001998795832932061</v>
+        <v>0.0001681935902659447</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001044578557459713</v>
+        <v>0.0001911264750330258</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001521687195195887</v>
+        <v>0.0001796600326494853</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00852376409431398</v>
+        <v>0.0005241040101597581</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07484423017268656</v>
+        <v>0.007582300162507245</v>
       </c>
       <c r="N2" t="n">
-        <v>1.016002634395478</v>
+        <v>1.000164239183658</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07803050400005287</v>
+        <v>0.007905094377950304</v>
       </c>
       <c r="P2" t="n">
-        <v>76.36938502515586</v>
+        <v>85.52775469536741</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.5922872458065</v>
+        <v>125.750656916018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_23</t>
+          <t>model_15_5_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9938778716662232</v>
+        <v>0.9999384078534833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9946858396006549</v>
+        <v>0.9989770165517916</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9970968334840029</v>
+        <v>0.9997060951040553</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9981935150726647</v>
+        <v>0.9998263135685566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9976482457583074</v>
+        <v>0.9998274464114194</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005714738069205135</v>
+        <v>5.749356519055757e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004960535468106556</v>
+        <v>0.0009549101451189431</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002038206695464827</v>
+        <v>0.0001681960274367495</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001062529984203546</v>
+        <v>0.0001911386844215834</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001550368339834186</v>
+        <v>0.0001796673559291665</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008608696287405135</v>
+        <v>0.0005240930365651743</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07559588658918642</v>
+        <v>0.00758245113341046</v>
       </c>
       <c r="N3" t="n">
-        <v>1.016325675556738</v>
+        <v>1.000164245724044</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07881415998634642</v>
+        <v>0.007905251775997423</v>
       </c>
       <c r="P3" t="n">
-        <v>76.32941362989155</v>
+        <v>85.52767505230553</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.5523158505422</v>
+        <v>125.7505772729561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_22</t>
+          <t>model_15_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9937542601213428</v>
+        <v>0.9999384075695963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945791845750823</v>
+        <v>0.9989770090066064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.997039408826352</v>
+        <v>0.9997060921864066</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981622965846473</v>
+        <v>0.9998263135685566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9976037416534007</v>
+        <v>0.9998274456096182</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005830124020431319</v>
+        <v>5.749383018664588e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005060093252864064</v>
+        <v>0.0009549171882181167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002078522440725741</v>
+        <v>0.0001681976971500066</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001080891930698689</v>
+        <v>0.0001911386844215834</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001579707185712215</v>
+        <v>0.000179668190785795</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008694517995823261</v>
+        <v>0.0005240723621128294</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07635524880734341</v>
+        <v>0.00758246860769274</v>
       </c>
       <c r="N4" t="n">
-        <v>1.016655306343086</v>
+        <v>1.000164246481076</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07960584982622684</v>
+        <v>0.007905269994196076</v>
       </c>
       <c r="P4" t="n">
-        <v>76.28943401208949</v>
+        <v>85.52766583403991</v>
       </c>
       <c r="Q4" t="n">
-        <v>116.5123362327401</v>
+        <v>125.7505680546905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_21</t>
+          <t>model_15_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9936281070605871</v>
+        <v>0.9999384058515686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9944701528753365</v>
+        <v>0.9989770020392224</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9969805095143519</v>
+        <v>0.9997060789153974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9981304598047217</v>
+        <v>0.999826315521427</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9975581765034118</v>
+        <v>0.999827442994605</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005947882365167337</v>
+        <v>5.749543389010851e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005161869558638336</v>
+        <v>0.0009549236919652527</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002119873486700982</v>
+        <v>0.0001682052918891975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001099617541280662</v>
+        <v>0.0001911365353240414</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001609745513990822</v>
+        <v>0.0001796709136066194</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008781246034830142</v>
+        <v>0.0005240685874227988</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07712251529331325</v>
+        <v>0.007582574357703886</v>
       </c>
       <c r="N5" t="n">
-        <v>1.016991714505101</v>
+        <v>1.000164251062484</v>
       </c>
       <c r="O5" t="n">
-        <v>0.080405780434965</v>
+        <v>0.00790538024620413</v>
       </c>
       <c r="P5" t="n">
-        <v>76.24944005557542</v>
+        <v>85.52761004784193</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.472342276226</v>
+        <v>125.7505122684926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_20</t>
+          <t>model_15_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9934993345621334</v>
+        <v>0.9999384035389363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9943587069316641</v>
+        <v>0.9989769904186203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9969202454368246</v>
+        <v>0.9997060638610803</v>
       </c>
       <c r="E6" t="n">
-        <v>0.998097838027307</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9975115344542972</v>
+        <v>0.9998274366298145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006068085840014554</v>
+        <v>5.749759263086082e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005265899455144924</v>
+        <v>0.0009549345392871949</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002162182684480538</v>
+        <v>0.0001682139071806236</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001118804868070152</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001640493776275345</v>
+        <v>0.0001796775407946395</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00886893523376877</v>
+        <v>0.0005240578574311263</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0778979193561327</v>
+        <v>0.007582716705169778</v>
       </c>
       <c r="N6" t="n">
-        <v>1.017335107834311</v>
+        <v>1.000164257229503</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08121419505404635</v>
+        <v>0.007905528653696344</v>
       </c>
       <c r="P6" t="n">
-        <v>76.20942414250409</v>
+        <v>85.52753495665361</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4323263631547</v>
+        <v>125.7504371773042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_19</t>
+          <t>model_15_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9933678983190847</v>
+        <v>0.9999384035955075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9942447657677721</v>
+        <v>0.9989769898501415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9968586257485789</v>
+        <v>0.9997060559864891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9980645396839771</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9974638687523217</v>
+        <v>0.9998274344657921</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00619077580351624</v>
+        <v>5.749753982413167e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005372258530199091</v>
+        <v>0.0009549350699371542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002205443606808859</v>
+        <v>0.0001682184136553117</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001138390134283566</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001671916870546212</v>
+        <v>0.0001796797940319835</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00895754786509576</v>
+        <v>0.0005240495008573304</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07868148323154718</v>
+        <v>0.00758271322312348</v>
       </c>
       <c r="N7" t="n">
-        <v>1.017685604482441</v>
+        <v>1.000164257078647</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08203111686583807</v>
+        <v>0.007905525023412126</v>
       </c>
       <c r="P7" t="n">
-        <v>76.16938973678324</v>
+        <v>85.52753679348716</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.3922919574339</v>
+        <v>125.7504390141378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_18</t>
+          <t>model_15_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9932337658149384</v>
+        <v>0.9999384042333467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9941283594098174</v>
+        <v>0.9989769838099574</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9967955322956527</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980302616731125</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.997414981268705</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006315982608400341</v>
+        <v>5.749694442915956e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005480918755701194</v>
+        <v>0.0009549407081839586</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002249739205247907</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001158551616835326</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001704145411041617</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009047124538916883</v>
+        <v>0.0005240284306650612</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07947315652722207</v>
+        <v>0.007582673963000094</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018043291160164</v>
+        <v>1.000164255377742</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0828564933326995</v>
+        <v>0.007905484091904008</v>
       </c>
       <c r="P8" t="n">
-        <v>76.12934387234138</v>
+        <v>85.52755750387082</v>
       </c>
       <c r="Q8" t="n">
-        <v>116.352246092992</v>
+        <v>125.7504597245214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_17</t>
+          <t>model_15_5_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9930969256694953</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9940094121660227</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9967309881725073</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9979954535460445</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9973650848464103</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006443716877583289</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005591950786602954</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002295053266023587</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001179024900693967</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001737039083358777</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0091376039750392</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08027276547860607</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N9" t="n">
-        <v>1.018408198214679</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08369014329256261</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P9" t="n">
-        <v>76.08929950090294</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3122017215536</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_16</t>
+          <t>model_15_5_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9929572767491361</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.993887819545656</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9966648411339826</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979598740736513</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9973139908052026</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006574073014859425</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005705452160416156</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002341492674877086</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001199951870893364</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001770722272885225</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009229031120490283</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08108065746440038</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N10" t="n">
-        <v>1.018780595335637</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08453242891275915</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P10" t="n">
-        <v>76.04924339438196</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q10" t="n">
-        <v>116.2721456150326</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_15</t>
+          <t>model_15_5_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9928148027798889</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9937636307397204</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.996597311957977</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9979233571536473</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9972617426063887</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006707066211267302</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005821376959498438</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002388902431746181</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001221430224710656</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001805166328228419</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009321428721161509</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08189668009917925</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N11" t="n">
-        <v>1.019160525920296</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08538319132050028</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P11" t="n">
-        <v>76.00918729989711</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.2320895205477</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_14</t>
+          <t>model_15_5_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9926693641863996</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9936366691520909</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9965281996064846</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9978859967374804</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9972082751131474</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006842826754273006</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005939890028580908</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002437423678038713</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001243404702216157</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001840414190127435</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009414812796669085</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08272138027301651</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019548362169601</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08624300068810251</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P12" t="n">
-        <v>75.96910872910176</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.1920109497524</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_13</t>
+          <t>model_15_5_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9925209744046306</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9935069422289778</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9964575134241755</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9978477172768256</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9971535595990909</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006981342101995839</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0060609844169532</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002487049853204834</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001265919739075477</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001876484796140156</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009509183557279803</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M13" t="n">
-        <v>0.083554425986873</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N13" t="n">
-        <v>1.019944068254318</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08711151088264023</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P13" t="n">
-        <v>75.92902820493609</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.1519304255867</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_12</t>
+          <t>model_15_5_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9923695109420463</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9933743477270526</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9963851259570973</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9978086004719084</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F14" t="n">
-        <v>0.997097564644146</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007122726595840658</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006184755564274478</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00253787043798825</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001288927281226429</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001913398859607339</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00960456245577216</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08439624752227233</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N14" t="n">
-        <v>1.02034797082121</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08798917050361231</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P14" t="n">
-        <v>75.88892935602085</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.1118315766715</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_11</t>
+          <t>model_15_5_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.992214953729022</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9932388451557074</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9963110300822419</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9977687161602756</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.997040317610103</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007266998969921242</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006311241266749724</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002589890433191615</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001312386251942408</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001951138342567012</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009700943369442414</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08524669477417433</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N15" t="n">
-        <v>1.020760123389275</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0888758230556963</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P15" t="n">
-        <v>75.84882373819021</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.0717259588408</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_10</t>
+          <t>model_15_5_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9920572278667925</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9931004423450687</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9962355145825024</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9977275914568651</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F16" t="n">
-        <v>0.996981761313245</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007414229138947356</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006440434215299722</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002642907094940851</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001336574790581196</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001989740942761023</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00979835560108603</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08610591814124832</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N16" t="n">
-        <v>1.021180725688553</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08977162534034418</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P16" t="n">
-        <v>75.80870853695971</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.0316107576103</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_9</t>
+          <t>model_15_5_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9918963127460511</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9929589875894131</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9961580777389039</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9976857738279251</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9969218728238728</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007564436340801972</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00657247602055805</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002697272661720613</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00136117089096634</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002029221776343477</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009896757538520543</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08697376811891026</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N17" t="n">
-        <v>1.021609832677197</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09067642148825232</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P17" t="n">
-        <v>75.76859488666879</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.9914971073194</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_8</t>
+          <t>model_15_5_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9917320950051498</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9928144774563256</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9960790916941837</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9976427475575257</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9968606202387982</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007717726393607576</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006707369886533573</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002752725865768561</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001386477884518338</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002069601875143449</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009996212806125665</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08785059131051752</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N18" t="n">
-        <v>1.022047746652934</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09159057285840053</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P18" t="n">
-        <v>75.72847093384337</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.951373154494</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_7</t>
+          <t>model_15_5_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9915645368353608</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9926668195388819</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9959983253104716</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9975987634483489</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9967979923652288</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007874134590152036</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006845202071033756</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002809428980503325</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001412348255270761</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002110888617887043</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01009669199797025</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08873632058042545</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N19" t="n">
-        <v>1.022494568439038</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O19" t="n">
-        <v>0.09251400945704077</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P19" t="n">
-        <v>75.68834398724636</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q19" t="n">
-        <v>115.911246207897</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_6</t>
+          <t>model_15_5_11</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.991393587643541</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9925159744756901</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9959157079862027</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9975538170703556</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9967339496329936</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008033708156913531</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006986009316190279</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00286743157269306</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001438784608863611</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002153108090778336</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01019822903835746</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08963095534977596</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N20" t="n">
-        <v>1.022950432950557</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O20" t="n">
-        <v>0.09344673068067182</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P20" t="n">
-        <v>75.64821813941032</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.8711203600609</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_5</t>
+          <t>model_15_5_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9912191256377154</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9923618230877519</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9958312464292164</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9975079408370603</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9966685100736073</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008196560781354728</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007129902870366655</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002926728933009876</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001465767880465233</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002196248406737555</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01030080912329339</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09053485948160922</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N21" t="n">
-        <v>1.023415664966092</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O21" t="n">
-        <v>0.09438911588273673</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P21" t="n">
-        <v>75.60808125919952</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.8309834798501</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_4</t>
+          <t>model_15_5_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9910411429459136</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.992204385840619</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9957450459236695</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9974607387443418</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9966015530906603</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008362699811614487</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.007276863629868794</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002987247145310147</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001493530989955751</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002240389067632949</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01040446499809729</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09144779828740814</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N22" t="n">
-        <v>1.023890285477564</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09534092038354236</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P22" t="n">
-        <v>75.56794792009536</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q22" t="n">
-        <v>115.790850140746</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_3</t>
+          <t>model_15_5_8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9908595615580408</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9920435683079263</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9956570213126875</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9974125174336965</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9965331701331175</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008532198066691985</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.007426979737563599</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003049045995111031</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001521893578352099</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002285469786731565</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0105091815453992</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09236989805500483</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N23" t="n">
-        <v>1.024374502511891</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O23" t="n">
-        <v>0.09630227584725531</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P23" t="n">
-        <v>75.52781652814949</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.7507187488001</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_2</t>
+          <t>model_15_5_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9906742454268005</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9918792260340673</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9955670184131988</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9973631308898712</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9964632139639155</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008705182540766849</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007580386036418866</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003112233728690296</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001550941528233406</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002331587628461851</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01061500628910218</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09330156772941625</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N24" t="n">
-        <v>1.024868678861865</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09727360862852853</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P24" t="n">
-        <v>75.48767347267206</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.7105756933227</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_1</t>
+          <t>model_15_5_14</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9904851509521289</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9917113188804987</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9954752332697896</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9973126462344024</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9963918189159151</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008881693932584638</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007737119994002914</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003176672710336747</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001580635360363474</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00237865403535011</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01072193750348373</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0942427394157483</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N25" t="n">
-        <v>1.025372930794323</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0982548479420417</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P25" t="n">
-        <v>75.44752596399228</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q25" t="n">
-        <v>115.6704281846429</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_15_5_0</t>
+          <t>model_15_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9902922331946402</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9915398100781885</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9953815922419801</v>
+        <v>0.9997060624766448</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9972607291088682</v>
+        <v>0.9998263113059221</v>
       </c>
       <c r="F26" t="n">
-        <v>0.996318796619163</v>
+        <v>0.9998274362493568</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009061774191089458</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0078972159325932</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003242414640329355</v>
+        <v>0.0001682146994660204</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001611171736138877</v>
+        <v>0.0001911411744086554</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002426793188234115</v>
+        <v>0.0001796779369373379</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01082997770509406</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09519335161180878</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N26" t="n">
-        <v>1.025887378147626</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09924592966732701</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P26" t="n">
-        <v>75.40738070253551</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.6302829231861</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
   </sheetData>
